--- a/tietokanta/class_progression/class_progression_Ranger.xlsx
+++ b/tietokanta/class_progression/class_progression_Ranger.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\class_progression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1562233B-6E35-4C02-BD35-B4877A7C384A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69123E33-6DC9-428B-BB10-6AA7557244CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1920" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -432,7 +432,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
